--- a/data/pca/factorExposure/factorExposure_2017-06-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-06-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.02314560853351752</v>
+        <v>-0.009715431610202534</v>
       </c>
       <c r="C2">
-        <v>0.008319614071651403</v>
+        <v>0.04628968406412733</v>
       </c>
       <c r="D2">
-        <v>0.03409397179153076</v>
+        <v>0.03012955155925079</v>
       </c>
       <c r="E2">
-        <v>0.005453712764264534</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.03276437507732278</v>
+      </c>
+      <c r="F2">
+        <v>0.009211046672263811</v>
+      </c>
+      <c r="G2">
+        <v>-0.09641172110897608</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01772368889978421</v>
+        <v>-0.0450354324609949</v>
       </c>
       <c r="C3">
-        <v>-0.03742900374669587</v>
+        <v>0.09768636167945538</v>
       </c>
       <c r="D3">
-        <v>0.09965188354228317</v>
+        <v>0.01683850876993008</v>
       </c>
       <c r="E3">
-        <v>0.01519766911230668</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.09593671131641547</v>
+      </c>
+      <c r="F3">
+        <v>0.0008545860901779596</v>
+      </c>
+      <c r="G3">
+        <v>-0.1829911901391869</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02462908482492971</v>
+        <v>-0.0555937020585577</v>
       </c>
       <c r="C4">
-        <v>-0.007032683659778321</v>
+        <v>0.06859197973987925</v>
       </c>
       <c r="D4">
-        <v>0.08839290844859289</v>
+        <v>0.02446069576606056</v>
       </c>
       <c r="E4">
-        <v>-0.02380320104060459</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02558644929622893</v>
+      </c>
+      <c r="F4">
+        <v>0.01101286790399587</v>
+      </c>
+      <c r="G4">
+        <v>-0.09601803475545888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.01399098902963534</v>
+        <v>-0.03684421474994715</v>
       </c>
       <c r="C6">
-        <v>0.007902268309193621</v>
+        <v>0.05315554789461359</v>
       </c>
       <c r="D6">
-        <v>0.08154900804272511</v>
+        <v>0.01686520299509485</v>
       </c>
       <c r="E6">
-        <v>-0.01516242069594714</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.02980145532565319</v>
+      </c>
+      <c r="F6">
+        <v>0.009602756326318292</v>
+      </c>
+      <c r="G6">
+        <v>-0.07546144877316636</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.0115157030259166</v>
+        <v>-0.02041402207729695</v>
       </c>
       <c r="C7">
-        <v>-0.00288525164172959</v>
+        <v>0.04211539958541404</v>
       </c>
       <c r="D7">
-        <v>0.04462616478406203</v>
+        <v>0.01338474210979847</v>
       </c>
       <c r="E7">
-        <v>-0.06244746300938249</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.004880193469485709</v>
+      </c>
+      <c r="F7">
+        <v>-0.004673400321975649</v>
+      </c>
+      <c r="G7">
+        <v>-0.127399382930319</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0007125110768120863</v>
+        <v>-0.003365562447019041</v>
       </c>
       <c r="C8">
-        <v>0.0002946063661771908</v>
+        <v>0.02511366836881315</v>
       </c>
       <c r="D8">
-        <v>0.005593033239841816</v>
+        <v>0.004038820776717362</v>
       </c>
       <c r="E8">
-        <v>-0.007487527376793035</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.02241906539331407</v>
+      </c>
+      <c r="F8">
+        <v>0.006124363997398546</v>
+      </c>
+      <c r="G8">
+        <v>-0.0680458642407808</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01687401490373599</v>
+        <v>-0.03318119455251219</v>
       </c>
       <c r="C9">
-        <v>-0.009073579031739696</v>
+        <v>0.0499160667264112</v>
       </c>
       <c r="D9">
-        <v>0.06532999422654868</v>
+        <v>0.01677891980639884</v>
       </c>
       <c r="E9">
-        <v>-0.01095975196897665</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.01696580368279699</v>
+      </c>
+      <c r="F9">
+        <v>0.009992168303987492</v>
+      </c>
+      <c r="G9">
+        <v>-0.09507876177711055</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.02777199072094205</v>
+        <v>-0.09843171968320903</v>
       </c>
       <c r="C10">
-        <v>-0.1772916211693934</v>
+        <v>-0.180662948589333</v>
       </c>
       <c r="D10">
-        <v>-0.09002578098445635</v>
+        <v>-0.01444688318628642</v>
       </c>
       <c r="E10">
-        <v>0.02271035294986999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02063952953269109</v>
+      </c>
+      <c r="F10">
+        <v>-0.0208036913621521</v>
+      </c>
+      <c r="G10">
+        <v>-0.06014858055080829</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0006425837125040763</v>
+        <v>-0.03444255649303136</v>
       </c>
       <c r="C11">
-        <v>0.002077385317407858</v>
+        <v>0.05522946783922209</v>
       </c>
       <c r="D11">
-        <v>0.05734451598856019</v>
+        <v>0.00245787419395461</v>
       </c>
       <c r="E11">
-        <v>-0.002944770384252766</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.009703225406202427</v>
+      </c>
+      <c r="F11">
+        <v>0.02145356103930775</v>
+      </c>
+      <c r="G11">
+        <v>-0.08382343416603737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.00552439734170511</v>
+        <v>-0.03632045867118056</v>
       </c>
       <c r="C12">
-        <v>-0.0003405198805024624</v>
+        <v>0.04927859227300796</v>
       </c>
       <c r="D12">
-        <v>0.05208113897846105</v>
+        <v>0.006206110428488844</v>
       </c>
       <c r="E12">
-        <v>-0.0147720634936799</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.001928548547701511</v>
+      </c>
+      <c r="F12">
+        <v>0.001583711297286043</v>
+      </c>
+      <c r="G12">
+        <v>-0.07812705605569432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.02444660511530396</v>
+        <v>-0.01516549075958412</v>
       </c>
       <c r="C13">
-        <v>-0.01301589324035709</v>
+        <v>0.04133861948654251</v>
       </c>
       <c r="D13">
-        <v>0.03890722371455717</v>
+        <v>0.02656894882664038</v>
       </c>
       <c r="E13">
-        <v>0.00563653477989953</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.03056959957662825</v>
+      </c>
+      <c r="F13">
+        <v>0.00634939022567289</v>
+      </c>
+      <c r="G13">
+        <v>-0.1205969270367427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.008883792914646039</v>
+        <v>-0.008624289907215256</v>
       </c>
       <c r="C14">
-        <v>-0.01029188625961974</v>
+        <v>0.02941668364642776</v>
       </c>
       <c r="D14">
-        <v>0.01988465351727762</v>
+        <v>0.009886243610735135</v>
       </c>
       <c r="E14">
-        <v>-0.007189716069878441</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.001602049846516253</v>
+      </c>
+      <c r="F14">
+        <v>-0.009159379058835456</v>
+      </c>
+      <c r="G14">
+        <v>-0.09929314830011922</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.001571736409504957</v>
+        <v>-0.0330984640639999</v>
       </c>
       <c r="C16">
-        <v>-0.004675221591310211</v>
+        <v>0.04881273466411835</v>
       </c>
       <c r="D16">
-        <v>0.0531272452676503</v>
+        <v>0.001995654935771437</v>
       </c>
       <c r="E16">
-        <v>-0.01286467567826731</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.009289964888370951</v>
+      </c>
+      <c r="F16">
+        <v>0.002642221140292088</v>
+      </c>
+      <c r="G16">
+        <v>-0.08593487586660856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1108,200 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01584483693883676</v>
+        <v>-0.02140198185932407</v>
       </c>
       <c r="C19">
-        <v>-0.01754086377549304</v>
+        <v>0.05434421910780141</v>
       </c>
       <c r="D19">
-        <v>0.04891336318036681</v>
+        <v>0.0190204241926237</v>
       </c>
       <c r="E19">
-        <v>-0.0174316670332464</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.06563213676900172</v>
+      </c>
+      <c r="F19">
+        <v>0.02062629984498401</v>
+      </c>
+      <c r="G19">
+        <v>-0.1355291794104063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01143791066126505</v>
+        <v>-0.01484581427601832</v>
       </c>
       <c r="C20">
-        <v>-0.004208170351355581</v>
+        <v>0.04001504445184255</v>
       </c>
       <c r="D20">
-        <v>0.03610675394908659</v>
+        <v>0.01416155426512622</v>
       </c>
       <c r="E20">
-        <v>0.008473508152078833</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02853101440532015</v>
+      </c>
+      <c r="F20">
+        <v>-0.0113573403268395</v>
+      </c>
+      <c r="G20">
+        <v>-0.1064987929003924</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01578117392469391</v>
+        <v>-0.01278281416151604</v>
       </c>
       <c r="C21">
-        <v>-0.01333974598854794</v>
+        <v>0.04066392132396764</v>
       </c>
       <c r="D21">
-        <v>0.03957715661260575</v>
+        <v>0.01861409012398717</v>
       </c>
       <c r="E21">
-        <v>-0.009127661587462199</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.04102481756024903</v>
+      </c>
+      <c r="F21">
+        <v>-0.0002509467558528493</v>
+      </c>
+      <c r="G21">
+        <v>-0.1310164749050814</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.0005124590196007513</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.0002128306000180886</v>
       </c>
       <c r="D22">
-        <v>0</v>
+        <v>0.0002580570775689858</v>
       </c>
       <c r="E22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.0008132381163772846</v>
+      </c>
+      <c r="F22">
+        <v>0.0001352309339026203</v>
+      </c>
+      <c r="G22">
+        <v>-0.002301779610687409</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.0005168015099595838</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.0002124816354987893</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>0.0002581944567141832</v>
       </c>
       <c r="E23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.0008189098556615062</v>
+      </c>
+      <c r="F23">
+        <v>0.000133644312455028</v>
+      </c>
+      <c r="G23">
+        <v>-0.002313188657609586</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004027493162737865</v>
+        <v>-0.02804018062562499</v>
       </c>
       <c r="C24">
-        <v>0.008123224333817916</v>
+        <v>0.05180306934668306</v>
       </c>
       <c r="D24">
-        <v>0.05116456974686177</v>
+        <v>0.007266632148562296</v>
       </c>
       <c r="E24">
-        <v>-0.01067786923588075</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.005462032990173418</v>
+      </c>
+      <c r="F24">
+        <v>0.01402453228395862</v>
+      </c>
+      <c r="G24">
+        <v>-0.08495568883095217</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01244396058822428</v>
+        <v>-0.04286464827982017</v>
       </c>
       <c r="C25">
-        <v>-0.009084520092332406</v>
+        <v>0.05963115149758925</v>
       </c>
       <c r="D25">
-        <v>0.05951706269221279</v>
+        <v>0.01121263611503153</v>
       </c>
       <c r="E25">
-        <v>-0.01246873416387288</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.001659054203167705</v>
+      </c>
+      <c r="F25">
+        <v>0.007632315334245292</v>
+      </c>
+      <c r="G25">
+        <v>-0.09443156957687032</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02318627166712985</v>
+        <v>-0.01381363177814776</v>
       </c>
       <c r="C26">
-        <v>-0.004712934353901904</v>
+        <v>0.01200773631155992</v>
       </c>
       <c r="D26">
-        <v>0.002450110778747495</v>
+        <v>0.02399555408830645</v>
       </c>
       <c r="E26">
-        <v>-0.009812499483769591</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.005731976993511657</v>
+      </c>
+      <c r="F26">
+        <v>-0.009308717562365886</v>
+      </c>
+      <c r="G26">
+        <v>-0.0800454513498963</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.05254426376337377</v>
+        <v>-0.1255923205187998</v>
       </c>
       <c r="C28">
-        <v>-0.2459945601576143</v>
+        <v>-0.2361505447208693</v>
       </c>
       <c r="D28">
-        <v>-0.1189815559773278</v>
+        <v>-0.0053064812674424</v>
       </c>
       <c r="E28">
-        <v>0.001934554674040137</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.007844767265767024</v>
+      </c>
+      <c r="F28">
+        <v>-0.01466162293720057</v>
+      </c>
+      <c r="G28">
+        <v>-0.05606787470430856</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.0093521668727848</v>
+        <v>-0.009556200906741212</v>
       </c>
       <c r="C29">
-        <v>-0.01444861160416386</v>
+        <v>0.02316199269732512</v>
       </c>
       <c r="D29">
-        <v>0.01908548514946745</v>
+        <v>0.008887072030793867</v>
       </c>
       <c r="E29">
-        <v>-0.004348180577609506</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.0006962913605538154</v>
+      </c>
+      <c r="F29">
+        <v>-0.01837328253690834</v>
+      </c>
+      <c r="G29">
+        <v>-0.09200761668159216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02408601440800969</v>
+        <v>-0.0411418551685299</v>
       </c>
       <c r="C30">
-        <v>0.008387752212439639</v>
+        <v>0.06988856102473924</v>
       </c>
       <c r="D30">
-        <v>0.09946257330301959</v>
+        <v>0.02904769689315643</v>
       </c>
       <c r="E30">
-        <v>0.02925143088334411</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.05139836098286611</v>
+      </c>
+      <c r="F30">
+        <v>0.04540390038469977</v>
+      </c>
+      <c r="G30">
+        <v>-0.109982908469537</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.01085413279501731</v>
+        <v>-0.05318082027676014</v>
       </c>
       <c r="C31">
-        <v>-0.03352961207439729</v>
+        <v>0.03812139362654582</v>
       </c>
       <c r="D31">
-        <v>0.04088661697516216</v>
+        <v>0.003728896511841224</v>
       </c>
       <c r="E31">
-        <v>-0.01011346420590113</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.001710359316835735</v>
+      </c>
+      <c r="F31">
+        <v>-0.03955048578866853</v>
+      </c>
+      <c r="G31">
+        <v>-0.09053231459365145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.005015361092393538</v>
+        <v>-0.001540245953973437</v>
       </c>
       <c r="C32">
-        <v>-0.01740781997655661</v>
+        <v>0.02575441407811312</v>
       </c>
       <c r="D32">
-        <v>0.009325864082540406</v>
+        <v>-0.003431788592867082</v>
       </c>
       <c r="E32">
-        <v>-0.05778014228883886</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01907703145872648</v>
+      </c>
+      <c r="F32">
+        <v>0.03686890067382058</v>
+      </c>
+      <c r="G32">
+        <v>-0.09474440042505011</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01497826988406599</v>
+        <v>-0.02787682161372032</v>
       </c>
       <c r="C33">
-        <v>-0.01872036433661189</v>
+        <v>0.05106588867088257</v>
       </c>
       <c r="D33">
-        <v>0.04867894741724597</v>
+        <v>0.01583268486292663</v>
       </c>
       <c r="E33">
-        <v>0.01863627520448523</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.03476801995669872</v>
+      </c>
+      <c r="F33">
+        <v>0.01627723004426937</v>
+      </c>
+      <c r="G33">
+        <v>-0.1438080363114978</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.003348668560198666</v>
+        <v>-0.04026811930541278</v>
       </c>
       <c r="C34">
-        <v>-0.0129075940523664</v>
+        <v>0.061785095105116</v>
       </c>
       <c r="D34">
-        <v>0.05753944556212177</v>
+        <v>-0.004639443452102824</v>
       </c>
       <c r="E34">
-        <v>-0.01804812355132469</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0007242012739800134</v>
+      </c>
+      <c r="F34">
+        <v>0.02008761399030631</v>
+      </c>
+      <c r="G34">
+        <v>-0.09261799462076852</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01375357928946803</v>
+        <v>-0.0160019403902614</v>
       </c>
       <c r="C36">
-        <v>-0.01694043460949644</v>
+        <v>0.009952847165655511</v>
       </c>
       <c r="D36">
-        <v>0.009635764824155306</v>
+        <v>0.01232291152518931</v>
       </c>
       <c r="E36">
-        <v>-0.008263013566922186</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.004052398124886997</v>
+      </c>
+      <c r="F36">
+        <v>-0.007454281257684263</v>
+      </c>
+      <c r="G36">
+        <v>-0.08470442059868312</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.001537335273689329</v>
+        <v>-0.03204510719408569</v>
       </c>
       <c r="C38">
-        <v>-0.03050296321047</v>
+        <v>0.03221176792781855</v>
       </c>
       <c r="D38">
-        <v>0.05565781762057819</v>
+        <v>-0.007523637342758722</v>
       </c>
       <c r="E38">
-        <v>-0.01656737333269695</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.002210849071790603</v>
+      </c>
+      <c r="F38">
+        <v>-0.01921385870493957</v>
+      </c>
+      <c r="G38">
+        <v>-0.08207722490012929</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.003523378373927605</v>
+        <v>-0.03539841812808285</v>
       </c>
       <c r="C39">
-        <v>0.03184675668663868</v>
+        <v>0.08158429477151595</v>
       </c>
       <c r="D39">
-        <v>0.1015202110529782</v>
+        <v>0.01180676101353692</v>
       </c>
       <c r="E39">
-        <v>-0.0003640213001836403</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.0206099167338884</v>
+      </c>
+      <c r="F39">
+        <v>0.02594640821539269</v>
+      </c>
+      <c r="G39">
+        <v>-0.08494661864149429</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01227518446898254</v>
+        <v>-0.01495986796025719</v>
       </c>
       <c r="C40">
-        <v>-0.007874790866205314</v>
+        <v>0.04361880140998725</v>
       </c>
       <c r="D40">
-        <v>0.04391610176423712</v>
+        <v>0.01486996679366975</v>
       </c>
       <c r="E40">
-        <v>-0.01668996800440284</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01971017003973287</v>
+      </c>
+      <c r="F40">
+        <v>-0.01663901205851481</v>
+      </c>
+      <c r="G40">
+        <v>-0.1197060270784247</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.006959383132098772</v>
+        <v>-0.02016724885259317</v>
       </c>
       <c r="C41">
-        <v>-0.02058042924656947</v>
+        <v>0.0022384160047765</v>
       </c>
       <c r="D41">
-        <v>-0.009869821073776101</v>
+        <v>0.004361022279129575</v>
       </c>
       <c r="E41">
-        <v>-0.003785732518525913</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002405743769938115</v>
+      </c>
+      <c r="F41">
+        <v>-0.013714999187039</v>
+      </c>
+      <c r="G41">
+        <v>-0.07361385813280195</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.08881537191127001</v>
+        <v>-0.008064030282816537</v>
       </c>
       <c r="C42">
-        <v>0.04623540002634378</v>
+        <v>0.03478720922438487</v>
       </c>
       <c r="D42">
-        <v>0.1659881830347113</v>
+        <v>0.09142063396553327</v>
       </c>
       <c r="E42">
-        <v>0.4440606485584215</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.02025635117341329</v>
+      </c>
+      <c r="F42">
+        <v>-0.03273308820452112</v>
+      </c>
+      <c r="G42">
+        <v>0.1227947699039904</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.008559897618564802</v>
+        <v>-0.0340465357022538</v>
       </c>
       <c r="C43">
-        <v>-0.02587421043649377</v>
+        <v>0.0179787662926699</v>
       </c>
       <c r="D43">
-        <v>-0.005940129416279914</v>
+        <v>0.006084385881106814</v>
       </c>
       <c r="E43">
-        <v>-0.003731951854541032</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.01585840462988018</v>
+      </c>
+      <c r="F43">
+        <v>-0.004053909212612877</v>
+      </c>
+      <c r="G43">
+        <v>-0.1078469923099677</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003634703446238402</v>
+        <v>-0.01243366241143303</v>
       </c>
       <c r="C44">
-        <v>-0.0009476128295037201</v>
+        <v>0.0595892772495233</v>
       </c>
       <c r="D44">
-        <v>0.05551341216633156</v>
+        <v>0.006797760151782073</v>
       </c>
       <c r="E44">
-        <v>-0.01678500650159307</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01755390021822223</v>
+      </c>
+      <c r="F44">
+        <v>-0.009183298387924067</v>
+      </c>
+      <c r="G44">
+        <v>-0.1008954858875387</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01139742772338718</v>
+        <v>-0.008041436216521643</v>
       </c>
       <c r="C46">
-        <v>-0.009571450762129998</v>
+        <v>0.01850460243113829</v>
       </c>
       <c r="D46">
-        <v>0.007733065637855588</v>
+        <v>0.01256960533588957</v>
       </c>
       <c r="E46">
-        <v>0.002677188268988581</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0007137687808067282</v>
+      </c>
+      <c r="F46">
+        <v>-0.01838611818860949</v>
+      </c>
+      <c r="G46">
+        <v>-0.0957744084921926</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.005038041871181952</v>
+        <v>-0.07718029002180933</v>
       </c>
       <c r="C47">
-        <v>-0.03830915685396263</v>
+        <v>0.06688075316307228</v>
       </c>
       <c r="D47">
-        <v>0.07354261345894121</v>
+        <v>-0.005224333316029384</v>
       </c>
       <c r="E47">
-        <v>-0.01178125460611435</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.007807998905250234</v>
+      </c>
+      <c r="F47">
+        <v>-0.05437259131714354</v>
+      </c>
+      <c r="G47">
+        <v>-0.08073429236694925</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.005023074420111624</v>
+        <v>-0.02026543073954182</v>
       </c>
       <c r="C48">
-        <v>-0.02210699928114679</v>
+        <v>0.01305716781227118</v>
       </c>
       <c r="D48">
-        <v>0.02174797747392559</v>
+        <v>0.001724258755530656</v>
       </c>
       <c r="E48">
-        <v>-0.003247944838346857</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.001517034089281427</v>
+      </c>
+      <c r="F48">
+        <v>-0.0206608514163432</v>
+      </c>
+      <c r="G48">
+        <v>-0.08756121990429376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.007495762752051057</v>
+        <v>-0.07537459860081172</v>
       </c>
       <c r="C50">
-        <v>-0.0432935752144763</v>
+        <v>0.07064955666188795</v>
       </c>
       <c r="D50">
-        <v>0.07082490984919035</v>
+        <v>-0.002795177506114366</v>
       </c>
       <c r="E50">
-        <v>-0.03498569472497597</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.008678484032017013</v>
+      </c>
+      <c r="F50">
+        <v>-0.05630935264685719</v>
+      </c>
+      <c r="G50">
+        <v>-0.09497887765848961</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.007994016195229397</v>
+        <v>-0.01416896825357984</v>
       </c>
       <c r="C51">
-        <v>-0.01183931728067881</v>
+        <v>0.03675774430971775</v>
       </c>
       <c r="D51">
-        <v>0.01803093396788451</v>
+        <v>0.01046156725523376</v>
       </c>
       <c r="E51">
-        <v>-0.007818359654850015</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.01730886427344051</v>
+      </c>
+      <c r="F51">
+        <v>0.02178124946219453</v>
+      </c>
+      <c r="G51">
+        <v>-0.1215044084707889</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.008937497832984831</v>
+        <v>-0.08178874611932098</v>
       </c>
       <c r="C53">
-        <v>-0.04555257619155235</v>
+        <v>0.08468614426402436</v>
       </c>
       <c r="D53">
-        <v>0.1288002363566917</v>
+        <v>-0.00398167636427665</v>
       </c>
       <c r="E53">
-        <v>-0.02505494675626482</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.02626465173456582</v>
+      </c>
+      <c r="F53">
+        <v>-0.0673406120703058</v>
+      </c>
+      <c r="G53">
+        <v>-0.0793469610585788</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.002952949961425919</v>
+        <v>-0.02983439482803265</v>
       </c>
       <c r="C54">
-        <v>-0.03284942796885968</v>
+        <v>0.01691489652535267</v>
       </c>
       <c r="D54">
-        <v>0.003289448585486362</v>
+        <v>-0.001234088395777351</v>
       </c>
       <c r="E54">
-        <v>0.005520339554085195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01185858577050176</v>
+      </c>
+      <c r="F54">
+        <v>-0.0006686697983685069</v>
+      </c>
+      <c r="G54">
+        <v>-0.09566361791783505</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.004833523714539671</v>
+        <v>-0.0719696069916731</v>
       </c>
       <c r="C55">
-        <v>-0.03045249612370579</v>
+        <v>0.06903694259459105</v>
       </c>
       <c r="D55">
-        <v>0.1048032624233506</v>
+        <v>-0.005307525152057611</v>
       </c>
       <c r="E55">
-        <v>-0.01008830378487051</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02268535142975516</v>
+      </c>
+      <c r="F55">
+        <v>-0.06216897290453902</v>
+      </c>
+      <c r="G55">
+        <v>-0.05619780941683179</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.008300890520830077</v>
+        <v>-0.137536116713337</v>
       </c>
       <c r="C56">
-        <v>-0.06687388258105395</v>
+        <v>0.1081951648006673</v>
       </c>
       <c r="D56">
-        <v>0.1583924229327005</v>
+        <v>-0.01299178030028274</v>
       </c>
       <c r="E56">
-        <v>-0.02022108172681336</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.03194696756015589</v>
+      </c>
+      <c r="F56">
+        <v>-0.08125046780738189</v>
+      </c>
+      <c r="G56">
+        <v>-0.02881329509703648</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02401317240764018</v>
+        <v>-0.006559007135395853</v>
       </c>
       <c r="C57">
-        <v>-0.002261507900412214</v>
+        <v>0.009108977940251825</v>
       </c>
       <c r="D57">
-        <v>0.04575221222888683</v>
+        <v>0.02354858932283358</v>
       </c>
       <c r="E57">
-        <v>0.01260740849107425</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02529848576090159</v>
+      </c>
+      <c r="F57">
+        <v>0.009955358024837232</v>
+      </c>
+      <c r="G57">
+        <v>-0.02955103384110259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.01509312941974112</v>
+        <v>-0.05558941670539316</v>
       </c>
       <c r="C58">
-        <v>-0.05526896049948569</v>
+        <v>0.05751233519222259</v>
       </c>
       <c r="D58">
-        <v>0.1944552509015492</v>
+        <v>0.0259962084994127</v>
       </c>
       <c r="E58">
-        <v>0.5950555474294972</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9357742462827013</v>
+      </c>
+      <c r="F58">
+        <v>-0.2258190984754134</v>
+      </c>
+      <c r="G58">
+        <v>0.1524340292183281</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.05302303725044116</v>
+        <v>-0.1598861583929062</v>
       </c>
       <c r="C59">
-        <v>-0.2724561073784679</v>
+        <v>-0.202725524073559</v>
       </c>
       <c r="D59">
-        <v>-0.1030158585695756</v>
+        <v>-0.01068777654799495</v>
       </c>
       <c r="E59">
-        <v>-0.01050692172439118</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.0191614581857376</v>
+      </c>
+      <c r="F59">
+        <v>0.004037474005239128</v>
+      </c>
+      <c r="G59">
+        <v>-0.04161864070350939</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.04835973924064446</v>
+        <v>-0.286407051767972</v>
       </c>
       <c r="C60">
-        <v>-0.1481938859566461</v>
+        <v>0.1075399816444151</v>
       </c>
       <c r="D60">
-        <v>0.1388316239860377</v>
+        <v>0.01256581826495563</v>
       </c>
       <c r="E60">
-        <v>-0.06179590681919412</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.007786178215814637</v>
+      </c>
+      <c r="F60">
+        <v>0.3455112248517646</v>
+      </c>
+      <c r="G60">
+        <v>0.1419775276101299</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.003347255946438975</v>
+        <v>-0.03781409169761969</v>
       </c>
       <c r="C61">
-        <v>0.0009497546566935104</v>
+        <v>0.06793476146741032</v>
       </c>
       <c r="D61">
-        <v>0.08003219057656656</v>
+        <v>0.005303942530875869</v>
       </c>
       <c r="E61">
-        <v>-0.01791145254545374</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.013286349887686</v>
+      </c>
+      <c r="F61">
+        <v>0.01431445877697123</v>
+      </c>
+      <c r="G61">
+        <v>-0.08836954736510168</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.00858987670775199</v>
+        <v>-0.0151261109826271</v>
       </c>
       <c r="C63">
-        <v>-0.005325116612926215</v>
+        <v>0.03036972418070909</v>
       </c>
       <c r="D63">
-        <v>0.02693614649147035</v>
+        <v>0.008461015650035177</v>
       </c>
       <c r="E63">
-        <v>-0.02162596739043073</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.0008632283896356139</v>
+      </c>
+      <c r="F63">
+        <v>-0.01679595907259964</v>
+      </c>
+      <c r="G63">
+        <v>-0.0906058889111139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.009967563739545526</v>
+        <v>-0.04746805399208511</v>
       </c>
       <c r="C64">
-        <v>-0.02330547025625128</v>
+        <v>0.04770589534258838</v>
       </c>
       <c r="D64">
-        <v>0.06265490969637159</v>
+        <v>0.006241058146819837</v>
       </c>
       <c r="E64">
-        <v>-0.003200183425397046</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-8.702591944652433e-05</v>
+      </c>
+      <c r="F64">
+        <v>0.00615336254235672</v>
+      </c>
+      <c r="G64">
+        <v>-0.08590173000225947</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01690213093370263</v>
+        <v>-0.07474433235289986</v>
       </c>
       <c r="C65">
-        <v>0.006189292538482391</v>
+        <v>0.05998900654607547</v>
       </c>
       <c r="D65">
-        <v>0.1000710049209257</v>
+        <v>0.0164938655452364</v>
       </c>
       <c r="E65">
-        <v>-0.02459254053889543</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.03106644599080005</v>
+      </c>
+      <c r="F65">
+        <v>0.0303612313997825</v>
+      </c>
+      <c r="G65">
+        <v>-0.03227098428687231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.004023114204707732</v>
+        <v>-0.05134331426440372</v>
       </c>
       <c r="C66">
-        <v>0.02800570263024875</v>
+        <v>0.1107653447878238</v>
       </c>
       <c r="D66">
-        <v>0.1378429510094284</v>
+        <v>0.01172088496979544</v>
       </c>
       <c r="E66">
-        <v>-0.008922099018944654</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.03043914722864088</v>
+      </c>
+      <c r="F66">
+        <v>0.03616361964290317</v>
+      </c>
+      <c r="G66">
+        <v>-0.101024239812054</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.005538586339843507</v>
+        <v>-0.05503037984538899</v>
       </c>
       <c r="C67">
-        <v>-0.04960652820354752</v>
+        <v>0.03555124445500085</v>
       </c>
       <c r="D67">
-        <v>0.07168969863863529</v>
+        <v>-0.005970069927377145</v>
       </c>
       <c r="E67">
-        <v>-0.01960770921910544</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.004577779843503159</v>
+      </c>
+      <c r="F67">
+        <v>-0.01800204608661398</v>
+      </c>
+      <c r="G67">
+        <v>-0.07378447743279863</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.06721411466997379</v>
+        <v>-0.1534631960479163</v>
       </c>
       <c r="C68">
-        <v>-0.248627517303568</v>
+        <v>-0.2691436561903198</v>
       </c>
       <c r="D68">
-        <v>-0.1481910960593884</v>
+        <v>0.006629653161132732</v>
       </c>
       <c r="E68">
-        <v>0.03023223651214198</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01302783455136458</v>
+      </c>
+      <c r="F68">
+        <v>-0.03178223515127559</v>
+      </c>
+      <c r="G68">
+        <v>-0.03014895501863978</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.0005140883642124908</v>
+        <v>-0.0815280239844232</v>
       </c>
       <c r="C69">
-        <v>-0.03226426987144197</v>
+        <v>0.07007785844836466</v>
       </c>
       <c r="D69">
-        <v>0.07730361665850397</v>
+        <v>-0.009170521578217891</v>
       </c>
       <c r="E69">
-        <v>-0.02525052438179036</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.02371475766111507</v>
+      </c>
+      <c r="F69">
+        <v>-0.03723331917995339</v>
+      </c>
+      <c r="G69">
+        <v>-0.09057439594974688</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.05120835758877038</v>
+        <v>-0.1400957969025836</v>
       </c>
       <c r="C71">
-        <v>-0.2172279234987955</v>
+        <v>-0.2273182739301022</v>
       </c>
       <c r="D71">
-        <v>-0.1000543400165127</v>
+        <v>-0.001912024866221844</v>
       </c>
       <c r="E71">
-        <v>0.02063327480171109</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.03377729130147333</v>
+      </c>
+      <c r="F71">
+        <v>-0.01844876630934062</v>
+      </c>
+      <c r="G71">
+        <v>-0.06733594024199582</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.001394075002071859</v>
+        <v>-0.08466555137206568</v>
       </c>
       <c r="C72">
-        <v>-0.02064272803448465</v>
+        <v>0.0745427920052716</v>
       </c>
       <c r="D72">
-        <v>0.111988820695863</v>
+        <v>-0.007942145676794668</v>
       </c>
       <c r="E72">
-        <v>-0.02874055253832098</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.002857141635535794</v>
+      </c>
+      <c r="F72">
+        <v>0.04016458973437487</v>
+      </c>
+      <c r="G72">
+        <v>-0.07714820377276009</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.06157606725302642</v>
+        <v>-0.3746265858775241</v>
       </c>
       <c r="C73">
-        <v>-0.1585084925564852</v>
+        <v>0.117849203763547</v>
       </c>
       <c r="D73">
-        <v>0.2478374239112021</v>
+        <v>0.02169910774447772</v>
       </c>
       <c r="E73">
-        <v>-0.03699597666659887</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.0637444408822033</v>
+      </c>
+      <c r="F73">
+        <v>0.578565584114231</v>
+      </c>
+      <c r="G73">
+        <v>0.261310955222983</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.005674284785295471</v>
+        <v>-0.1055084772033273</v>
       </c>
       <c r="C74">
-        <v>-0.05569946674521906</v>
+        <v>0.1097989156049465</v>
       </c>
       <c r="D74">
-        <v>0.1756400964540283</v>
+        <v>-0.009887605572055848</v>
       </c>
       <c r="E74">
-        <v>-0.01737068304373407</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.008301677355828416</v>
+      </c>
+      <c r="F74">
+        <v>-0.0707888328970607</v>
+      </c>
+      <c r="G74">
+        <v>-0.07494997386902782</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.01644476689725987</v>
+        <v>-0.249596874530223</v>
       </c>
       <c r="C75">
-        <v>-0.1385284742374583</v>
+        <v>0.1499672340841784</v>
       </c>
       <c r="D75">
-        <v>0.2989372832373705</v>
+        <v>-0.03161252785009184</v>
       </c>
       <c r="E75">
-        <v>-0.02287785194312186</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.05654604133068568</v>
+      </c>
+      <c r="F75">
+        <v>-0.1766573165924923</v>
+      </c>
+      <c r="G75">
+        <v>0.04386633542131666</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.004379718595252005</v>
+        <v>-0.1213805616557046</v>
       </c>
       <c r="C76">
-        <v>-0.08822457750263996</v>
+        <v>0.1102801016646816</v>
       </c>
       <c r="D76">
-        <v>0.2235110027148498</v>
+        <v>-0.01993858415373162</v>
       </c>
       <c r="E76">
-        <v>-0.05650040357160676</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.03280638823717727</v>
+      </c>
+      <c r="F76">
+        <v>-0.1164776901613294</v>
+      </c>
+      <c r="G76">
+        <v>-0.05036410348235527</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01518253977556957</v>
+        <v>-0.0679259387078225</v>
       </c>
       <c r="C77">
-        <v>-0.01597216888616861</v>
+        <v>0.06291424959143169</v>
       </c>
       <c r="D77">
-        <v>0.07045839345149711</v>
+        <v>0.01177357347014444</v>
       </c>
       <c r="E77">
-        <v>0.002784928322971259</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04237925215873081</v>
+      </c>
+      <c r="F77">
+        <v>0.01009202341021199</v>
+      </c>
+      <c r="G77">
+        <v>-0.06323792329455552</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.005885745815304088</v>
+        <v>-0.04257846982778588</v>
       </c>
       <c r="C78">
-        <v>-0.009817476835132517</v>
+        <v>0.05240214219273896</v>
       </c>
       <c r="D78">
-        <v>0.06006395521620608</v>
+        <v>0.005558847294962843</v>
       </c>
       <c r="E78">
-        <v>-0.003998937152698153</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.02177781973613333</v>
+      </c>
+      <c r="F78">
+        <v>0.03541573997717992</v>
+      </c>
+      <c r="G78">
+        <v>-0.0898101288284523</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01098068108689976</v>
+        <v>-0.04347150712280621</v>
       </c>
       <c r="C80">
-        <v>-0.0154469356988727</v>
+        <v>0.07338638513793934</v>
       </c>
       <c r="D80">
-        <v>0.1515984176734509</v>
+        <v>0.01074205517649172</v>
       </c>
       <c r="E80">
-        <v>-0.6264530057859822</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.0374419867902303</v>
+      </c>
+      <c r="F80">
+        <v>0.02301790482831757</v>
+      </c>
+      <c r="G80">
+        <v>-0.3485393207361145</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.01126620935467235</v>
+        <v>-0.1401438301093222</v>
       </c>
       <c r="C81">
-        <v>-0.08575488688106397</v>
+        <v>0.09626427022492441</v>
       </c>
       <c r="D81">
-        <v>0.1771910489195273</v>
+        <v>-0.01577699200693066</v>
       </c>
       <c r="E81">
-        <v>-0.03218986213047157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.03366515532052797</v>
+      </c>
+      <c r="F81">
+        <v>-0.1346060150340606</v>
+      </c>
+      <c r="G81">
+        <v>-0.02164082644792771</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.1265532360650998</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.07281505638863675</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.008174218875206633</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.09064300474435978</v>
+      </c>
+      <c r="F82">
+        <v>-0.03864255725935756</v>
+      </c>
+      <c r="G82">
+        <v>-0.05272713024017194</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.00835874906980782</v>
+        <v>-0.03615401791950846</v>
       </c>
       <c r="C83">
-        <v>-0.01943199050526895</v>
+        <v>0.0298697673119843</v>
       </c>
       <c r="D83">
-        <v>0.0389026577226861</v>
+        <v>0.005847759453296342</v>
       </c>
       <c r="E83">
-        <v>0.001583919839263913</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02738460857201978</v>
+      </c>
+      <c r="F83">
+        <v>0.03209306281341724</v>
+      </c>
+      <c r="G83">
+        <v>-0.06084373454948995</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.02195617473158242</v>
+        <v>-0.2154168111477334</v>
       </c>
       <c r="C85">
-        <v>-0.1058220808308403</v>
+        <v>0.1435737773141606</v>
       </c>
       <c r="D85">
-        <v>0.2697197553204244</v>
+        <v>-0.01936186591155296</v>
       </c>
       <c r="E85">
-        <v>-0.03585646923669387</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.09644146808617739</v>
+      </c>
+      <c r="F85">
+        <v>-0.138415632868621</v>
+      </c>
+      <c r="G85">
+        <v>0.09962282685050709</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01034421204440955</v>
+        <v>-0.01354506683630259</v>
       </c>
       <c r="C86">
-        <v>-0.02284982911386254</v>
+        <v>0.02964605848295115</v>
       </c>
       <c r="D86">
-        <v>0.05684623951423484</v>
+        <v>0.01270605350207419</v>
       </c>
       <c r="E86">
-        <v>0.03621383346662037</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.04684606613633725</v>
+      </c>
+      <c r="F86">
+        <v>0.03040057528517489</v>
+      </c>
+      <c r="G86">
+        <v>-0.1854459574092872</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.007948158913527906</v>
+        <v>-0.02267421881938007</v>
       </c>
       <c r="C87">
-        <v>0.003985630733385605</v>
+        <v>0.02412386570587334</v>
       </c>
       <c r="D87">
-        <v>0.05730340350941887</v>
+        <v>0.01228514672816457</v>
       </c>
       <c r="E87">
-        <v>0.01024276432109899</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.08668808437984234</v>
+      </c>
+      <c r="F87">
+        <v>0.01576651061089592</v>
+      </c>
+      <c r="G87">
+        <v>-0.1170755253079843</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02849756788504635</v>
+        <v>-0.09234303129944854</v>
       </c>
       <c r="C88">
-        <v>-0.02523977635184189</v>
+        <v>0.06663770092038976</v>
       </c>
       <c r="D88">
-        <v>0.05488209835107753</v>
+        <v>0.02245363065044111</v>
       </c>
       <c r="E88">
-        <v>-0.001660974934720144</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.008960788342201204</v>
+      </c>
+      <c r="F88">
+        <v>-0.01726347054471043</v>
+      </c>
+      <c r="G88">
+        <v>-0.08391292280608921</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.09838612564962339</v>
+        <v>-0.2339474589088079</v>
       </c>
       <c r="C89">
-        <v>-0.406284539608236</v>
+        <v>-0.3690416829310354</v>
       </c>
       <c r="D89">
-        <v>-0.1819346308474923</v>
+        <v>0.000604313067094052</v>
       </c>
       <c r="E89">
-        <v>-0.01570820121681337</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.008820706968985757</v>
+      </c>
+      <c r="F89">
+        <v>-0.02474648113081799</v>
+      </c>
+      <c r="G89">
+        <v>-0.06581698093203871</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.07530778740025465</v>
+        <v>-0.2073887605513471</v>
       </c>
       <c r="C90">
-        <v>-0.3196357852079026</v>
+        <v>-0.3193392899765118</v>
       </c>
       <c r="D90">
-        <v>-0.1682919137726719</v>
+        <v>-0.003794158609214454</v>
       </c>
       <c r="E90">
-        <v>0.01866007566878897</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.002167411332285792</v>
+      </c>
+      <c r="F90">
+        <v>-0.05310299821893251</v>
+      </c>
+      <c r="G90">
+        <v>-0.03750265766763374</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.01268874968984547</v>
+        <v>-0.1884550444486495</v>
       </c>
       <c r="C91">
-        <v>-0.1233928440865235</v>
+        <v>0.1376687870899357</v>
       </c>
       <c r="D91">
-        <v>0.2230335523437553</v>
+        <v>-0.02358178832199695</v>
       </c>
       <c r="E91">
-        <v>-0.03644251968340839</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.06174387979272694</v>
+      </c>
+      <c r="F91">
+        <v>-0.1496783877383101</v>
+      </c>
+      <c r="G91">
+        <v>-0.01464062553464249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.04305674485412226</v>
+        <v>-0.2003137496100109</v>
       </c>
       <c r="C92">
-        <v>-0.3263532496915575</v>
+        <v>-0.2568153057285909</v>
       </c>
       <c r="D92">
-        <v>-0.06519612433777788</v>
+        <v>-0.03791908182177745</v>
       </c>
       <c r="E92">
-        <v>0.02388485168712934</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.03485211151996699</v>
+      </c>
+      <c r="F92">
+        <v>-0.06083475022781402</v>
+      </c>
+      <c r="G92">
+        <v>-0.1378964673371128</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.07425717162852884</v>
+        <v>-0.2323847218426867</v>
       </c>
       <c r="C93">
-        <v>-0.3409529788981217</v>
+        <v>-0.3143393302177584</v>
       </c>
       <c r="D93">
-        <v>-0.140496805014256</v>
+        <v>-0.01052603264684923</v>
       </c>
       <c r="E93">
-        <v>0.03021961822466432</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01062901345300696</v>
+      </c>
+      <c r="F93">
+        <v>-0.03820479525829212</v>
+      </c>
+      <c r="G93">
+        <v>-0.04816177967868349</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.03769762305807518</v>
+        <v>-0.3170674629515455</v>
       </c>
       <c r="C94">
-        <v>-0.1477796636099502</v>
+        <v>0.1734565557577843</v>
       </c>
       <c r="D94">
-        <v>0.2395802434295007</v>
+        <v>-0.0189933477423398</v>
       </c>
       <c r="E94">
-        <v>-0.01439494232059269</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1743673896839018</v>
+      </c>
+      <c r="F94">
+        <v>-0.4749738985954859</v>
+      </c>
+      <c r="G94">
+        <v>0.3842638155508747</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.002879685170092983</v>
+        <v>-0.09996671681342989</v>
       </c>
       <c r="C95">
-        <v>-0.02740448761374864</v>
+        <v>0.08720779444480452</v>
       </c>
       <c r="D95">
-        <v>0.1209845417038459</v>
+        <v>-0.009854272087576631</v>
       </c>
       <c r="E95">
-        <v>0.1318455582542195</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.06541031148399015</v>
+      </c>
+      <c r="F95">
+        <v>0.203214798966802</v>
+      </c>
+      <c r="G95">
+        <v>0.07658431866992262</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.02086104247258682</v>
+        <v>-0.1969282172300493</v>
       </c>
       <c r="C98">
-        <v>-0.1455385522462821</v>
+        <v>0.04731680839688749</v>
       </c>
       <c r="D98">
-        <v>0.1642090809774909</v>
+        <v>-0.01240124845533365</v>
       </c>
       <c r="E98">
-        <v>0.010731411994478</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06694084067146246</v>
+      </c>
+      <c r="F98">
+        <v>0.2434786972039448</v>
+      </c>
+      <c r="G98">
+        <v>0.01117769696669435</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.009109886432863409</v>
+        <v>-0.009392704389376791</v>
       </c>
       <c r="C101">
-        <v>-0.0140997981902452</v>
+        <v>0.02312556887296018</v>
       </c>
       <c r="D101">
-        <v>0.01871954767794819</v>
+        <v>0.008713225781219438</v>
       </c>
       <c r="E101">
-        <v>-0.004277300674140461</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.0004737852711670573</v>
+      </c>
+      <c r="F101">
+        <v>-0.01923873342664871</v>
+      </c>
+      <c r="G101">
+        <v>-0.09106577532656526</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01930856272269069</v>
+        <v>-0.117488525196877</v>
       </c>
       <c r="C102">
-        <v>-0.05502643902590253</v>
+        <v>0.08386400845499557</v>
       </c>
       <c r="D102">
-        <v>0.1283647854497425</v>
+        <v>0.0004439489174606038</v>
       </c>
       <c r="E102">
-        <v>-0.01629233167000775</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.03447757882370527</v>
+      </c>
+      <c r="F102">
+        <v>-0.04011547432244538</v>
+      </c>
+      <c r="G102">
+        <v>-0.002838020160619422</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.0008175965096563853</v>
+        <v>-0.001354983225611517</v>
       </c>
       <c r="C103">
-        <v>-0.002969982550849105</v>
+        <v>0.002086909324519548</v>
       </c>
       <c r="D103">
-        <v>0.009806203996837305</v>
+        <v>0.0001300857861871995</v>
       </c>
       <c r="E103">
-        <v>0.003872137300128345</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>0.002825760754648472</v>
+      </c>
+      <c r="F103">
+        <v>-0.005260758454004443</v>
+      </c>
+      <c r="G103">
+        <v>-0.004660172981893713</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9682291872988549</v>
+        <v>-0.02106076519637786</v>
       </c>
       <c r="C104">
-        <v>0.2081893982462928</v>
+        <v>-0.02865249952806104</v>
       </c>
       <c r="D104">
-        <v>-0.03131453289725227</v>
+        <v>0.9874447391420385</v>
       </c>
       <c r="E104">
-        <v>-0.03832291634807455</v>
+        <v>-0.04988759979249422</v>
+      </c>
+      <c r="F104">
+        <v>-0.0391109071385803</v>
+      </c>
+      <c r="G104">
+        <v>0.03308616813099222</v>
       </c>
     </row>
   </sheetData>
